--- a/data/trans_dic/P28A_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28A_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha realizado menos ejercicio respecto al último mes</t>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>57,73%</t>
+          <t>56,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,75%</t>
+          <t>54,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>56,71%</t>
+          <t>55,36%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>25,59%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,65; 62,05</t>
+          <t>53,0; 60,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,69; 36,19</t>
+          <t>25,27; 34,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,44; 35,95</t>
+          <t>25,25; 33,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,92; 27,49</t>
+          <t>17,16; 26,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,8; 29,49</t>
+          <t>21,03; 27,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,15; 59,41</t>
+          <t>50,37; 57,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,85; 35,29</t>
+          <t>26,27; 33,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,13; 37,18</t>
+          <t>26,43; 32,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,04; 29,19</t>
+          <t>17,38; 24,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,48; 32,38</t>
+          <t>23,39; 29,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,73; 59,2</t>
+          <t>52,8; 58,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,44; 34,56</t>
+          <t>26,84; 32,24</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>29,92; 35,39</t>
+          <t>26,98; 31,97</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>19,58; 26,28</t>
+          <t>17,86; 23,24</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>25,21; 30,16</t>
+          <t>23,32; 27,92</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>49,24%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>53,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>51,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>27,33%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>26,57%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,64; 53,52</t>
+          <t>43,75; 53,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,5; 33,66</t>
+          <t>23,26; 34,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,65; 33,64</t>
+          <t>22,03; 30,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,1; 23,32</t>
+          <t>14,42; 22,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,85; 32,83</t>
+          <t>18,69; 31,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,56; 59,53</t>
+          <t>49,89; 58,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,51; 32,72</t>
+          <t>22,72; 30,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,2; 38,02</t>
+          <t>25,74; 33,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,12; 23,99</t>
+          <t>15,93; 22,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,12; 38,12</t>
+          <t>23,32; 35,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49,29; 55,59</t>
+          <t>48,38; 54,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,93; 32,11</t>
+          <t>24,42; 31,11</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>28,03; 34,4</t>
+          <t>25,08; 30,47</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,26; 22,69</t>
+          <t>16,23; 21,72</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>24,58; 33,91</t>
+          <t>22,29; 30,86</t>
         </is>
       </c>
     </row>
@@ -1020,22 +1021,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>55,03%</t>
+          <t>54,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1045,22 +1046,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1070,22 +1071,22 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>50,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,22 +1104,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,02; 65,29</t>
+          <t>44,55; 63,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 35,32</t>
+          <t>15,22; 31,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,89; 29,77</t>
+          <t>13,67; 27,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,8; 36,2</t>
+          <t>14,82; 36,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1128,22 +1129,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,89; 54,4</t>
+          <t>38,16; 53,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,24; 43,04</t>
+          <t>24,66; 39,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,63; 35,39</t>
+          <t>17,47; 30,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,55; 28,05</t>
+          <t>14,54; 26,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1153,22 +1154,22 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>45,08; 58,33</t>
+          <t>44,03; 56,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,07; 35,91</t>
+          <t>22,73; 34,05</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>18,62; 29,64</t>
+          <t>17,48; 27,09</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 28,74</t>
+          <t>16,18; 28,3</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>53,98%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,69%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>25,81%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,83; 56,88</t>
+          <t>50,31; 56,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,92; 32,78</t>
+          <t>25,03; 31,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 32,15</t>
+          <t>23,81; 29,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,98; 24,35</t>
+          <t>17,29; 23,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,31; 29,53</t>
+          <t>21,59; 27,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,25; 57,43</t>
+          <t>50,46; 55,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,95; 33,07</t>
+          <t>26,47; 31,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,59; 35,6</t>
+          <t>26,52; 31,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,33; 24,94</t>
+          <t>17,45; 21,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,56; 32,55</t>
+          <t>24,46; 29,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,22; 56,4</t>
+          <t>51,07; 55,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 31,98</t>
+          <t>26,49; 30,6</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>29,16; 33,07</t>
+          <t>26,08; 29,61</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>19,29; 23,48</t>
+          <t>18,03; 21,52</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>25,68; 30,11</t>
+          <t>23,63; 27,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>809.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>930910</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>479935</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>474191</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>340994</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>56017</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>968378</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>537962</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>538164</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>362892</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>63462</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1899289</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1017897</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1012355</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>703886</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>119479</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>869201; 996753</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>417604; 568097</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>416017; 554967</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>282346; 430582</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48177; 64014</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>902134; 1029126</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>474641; 602288</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>483444; 590326</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>316078; 437188</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>55650; 70580</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1811740; 1991444</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>928473; 1115161</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>937896; 1111392</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>618527; 805011</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>108903; 130359</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>602.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>673037</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>384126</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>359929</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>249982</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17664</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>760116</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>371108</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>402665</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>262406</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18969</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1433153</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>755235</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>762594</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>512388</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>36633</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>606713; 738342</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>319595; 469542</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>302709; 420795</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>198532; 315521</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13512; 22528</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>703329; 822923</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>315625; 424597</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>353751; 456747</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>219830; 309447</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15290; 23534</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1352898; 1525387</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>674875; 859719</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>689252; 837365</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>447443; 598843</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>30729; 42538</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>230037</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>97604</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>83535</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>93274</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>189065</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>131517</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>94534</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>80621</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>419102</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>229121</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>178069</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>173895</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>188384; 270534</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>64333; 134727</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>57301; 116190</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>62679; 152650</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>157190; 218318</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>101562; 163800</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>70342; 122356</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>59625; 106724</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>367543; 470500</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>189712; 284229</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>143714; 222685</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>134743; 235688</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>706.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>855.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>323.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1561.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>702.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>827.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>566.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>527.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1833985</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>961666</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>917655</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>684250</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>73681</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1917559</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1040588</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1035363</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>705919</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>82431</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3751544</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2002253</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1953018</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1390169</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>156112</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1735527; 1939608</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>863403; 1070217</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>819285; 1023964</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>595555; 793961</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>65051; 82707</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1823129; 2008488</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>954952; 1136204</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>956358; 1122801</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>629814; 790199</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>74233; 90989</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3606472; 3896863</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1869161; 2159781</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1838147; 2086527</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1271807; 1517882</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>142938; 167757</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>